--- a/documentation/timemanagment/summary.xlsx
+++ b/documentation/timemanagment/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A97AFE5-A1FF-4254-961D-568207194464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2F4AD6-3DAF-43A0-918F-12625D5CC7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -339,22 +336,22 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3576388888888889</c:v>
+                  <c:v>0.39930555555555558</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.70138888888888873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63888888888888684</c:v>
+                  <c:v>0.71180555555555347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3263888888888889</c:v>
+                  <c:v>0.36805555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.59722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5798611111111089</c:v>
+                  <c:v>2.7777777777777759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,10 +431,10 @@
                   <c:v>0.28819444444444442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4513888888888888</c:v>
+                  <c:v>1.6631944444444444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3173611111111065</c:v>
+                  <c:v>3.5291666666666623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,22 +585,22 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.14583333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.15277777777777779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.3263888888888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.82638888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,22 +923,22 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.1180555555555554</c:v>
+                  <c:v>4.4097222222222223</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.3958333333333348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0798611110777925</c:v>
+                  <c:v>4.2326388888555675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.270833333333333</c:v>
+                  <c:v>5.7256944444444438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1979166666666652</c:v>
+                  <c:v>5.3645833333333321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.062499999966679</c:v>
+                  <c:v>24.128472222188901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1008,7 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>0.19444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1026,7 +1023,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1875000000000031</c:v>
+                  <c:v>1.340277777777781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,22 +1178,22 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.3124999999999998</c:v>
+                  <c:v>1.364583333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38194444444444442</c:v>
+                  <c:v>0.50694444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37500000000000666</c:v>
+                  <c:v>0.40625000000000666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93055555555555569</c:v>
+                  <c:v>1.0520833333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1458333333333333</c:v>
+                  <c:v>1.2083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1458333333333401</c:v>
+                  <c:v>4.5381944444444509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,22 +1294,22 @@
                       <c:formatCode>[h]:mm;@</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>7.6201388888888886</c:v>
+                        <c:v>8.2972222222222207</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>8.2222222222222214</c:v>
+                        <c:v>8.4097222222222214</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.7777777777444648</c:v>
+                        <c:v>6.1805555555222389</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>8.0590277777777786</c:v>
+                        <c:v>8.9340277777777786</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>8.6250000000000018</c:v>
+                        <c:v>9.4340277777777768</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>38.304166666633357</c:v>
+                        <c:v>41.255555555522236</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2832,6 +2829,86 @@
             <v>Implementierung</v>
           </cell>
         </row>
+        <row r="80">
+          <cell r="B80">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>LV-Einheit</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>3.125E-2</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>0.125</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>Implementierung</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>2.7777777777777776E-2</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>0.16666666666666666</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>Implementierung</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>0.10416666666666667</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>Tests</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>7.9861111111111105E-2</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>3.125E-2</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>4.8611111111111112E-2</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>Tests</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
     </sheetDataSet>
@@ -2852,330 +2929,552 @@
           <cell r="B2">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C2" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="B3">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C3" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="B4">
             <v>2.7777777777777801E-2</v>
           </cell>
+          <cell r="C4" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5">
             <v>5.5555555555555601E-2</v>
           </cell>
+          <cell r="C5" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="B6">
             <v>0.15625</v>
           </cell>
+          <cell r="C6" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="B7">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C7" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="B8">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C8" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="B9">
             <v>6.5972222222222196E-2</v>
           </cell>
+          <cell r="C9" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="B10">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C10" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="B11">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C11" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="B12">
             <v>4.1666666666666699E-2</v>
           </cell>
+          <cell r="C12" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="B13">
             <v>2.0833333333333301E-2</v>
           </cell>
+          <cell r="C13" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="B14">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C14" t="str">
+            <v>Einarbeitung, Dokumentation lesen</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="B15">
             <v>0.1875</v>
           </cell>
+          <cell r="C15" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="B16">
             <v>4.1666666666666699E-2</v>
           </cell>
+          <cell r="C16" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="B17">
             <v>0.16666666666666699</v>
           </cell>
+          <cell r="C17" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="B18">
             <v>1.38888888888889E-2</v>
           </cell>
+          <cell r="C18" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="B19">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C19" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="B20">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C20" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="B21">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C21" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="B22">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C22" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="B23">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C23" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="B24">
             <v>2.0833333333333301E-2</v>
           </cell>
+          <cell r="C24" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="B25">
             <v>3.125E-2</v>
           </cell>
+          <cell r="C25" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="B26">
             <v>0.104166666666667</v>
           </cell>
+          <cell r="C26" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="B27">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C27" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="B28">
             <v>0.16666666666666699</v>
           </cell>
+          <cell r="C28" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="B29">
             <v>0.20833333333333301</v>
           </cell>
+          <cell r="C29" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="B30">
             <v>0.125</v>
           </cell>
+          <cell r="C30" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="B31">
             <v>0.125</v>
           </cell>
+          <cell r="C31" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="B32">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C32" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="B33">
             <v>4.1666666666666699E-2</v>
           </cell>
+          <cell r="C33" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="B34">
             <v>0.20833333333333301</v>
           </cell>
+          <cell r="C34" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="B35">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C35" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="B36">
             <v>1</v>
           </cell>
+          <cell r="C36" t="str">
+            <v>Einarbeitung, Dokumentation lesen</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="B37">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C37" t="str">
+            <v>Einarbeitung, Dokumentation lesen</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="B38">
             <v>0.16666666666666699</v>
           </cell>
+          <cell r="C38" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="B39">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C39" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="B40">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C40" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="B41">
             <v>2.0833333333333301E-2</v>
           </cell>
+          <cell r="C41" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="B42">
             <v>4.1666666666666699E-2</v>
           </cell>
+          <cell r="C42" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="B43">
             <v>0.125</v>
           </cell>
+          <cell r="C43" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="B44">
             <v>0.25</v>
           </cell>
+          <cell r="C44" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="B45">
             <v>2.0833333333333301E-2</v>
           </cell>
+          <cell r="C45" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="B46">
             <v>0.1875</v>
           </cell>
+          <cell r="C46" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="B47">
             <v>0.16666666666666699</v>
           </cell>
+          <cell r="C47" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="B48">
             <v>3.125E-2</v>
           </cell>
+          <cell r="C48" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="B49">
             <v>0.16666666666666699</v>
           </cell>
+          <cell r="C49" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="B50">
             <v>0.29166666666666702</v>
           </cell>
+          <cell r="C50" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="B51">
             <v>4.1666666666666699E-2</v>
           </cell>
+          <cell r="C51" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="B52">
             <v>0.104166666666667</v>
           </cell>
+          <cell r="C52" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="B53">
             <v>0.3125</v>
           </cell>
+          <cell r="C53" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="B54">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C54" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="B55">
             <v>0.20833333333333301</v>
           </cell>
+          <cell r="C55" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="B56">
             <v>0.14583333333333301</v>
           </cell>
+          <cell r="C56" t="str">
+            <v>Einarbeitung, Dokumentation lesen</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="B57">
             <v>0.27083333333333298</v>
           </cell>
+          <cell r="C57" t="str">
+            <v>Konfiguration und Deployment</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="B58">
             <v>0.5</v>
           </cell>
+          <cell r="C58" t="str">
+            <v>Konfiguration und Deployment</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="B59">
             <v>0.16666666666666699</v>
           </cell>
+          <cell r="C59" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="B60">
             <v>0.125</v>
           </cell>
+          <cell r="C60" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="B61">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C61" t="str">
+            <v>Systemtest (fremdes System)</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="B62">
             <v>8.3333333333333301E-2</v>
           </cell>
+          <cell r="C62" t="str">
+            <v>Einarbeitung, Dokumentation lesen</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="B63">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C63" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="B64">
             <v>2.7777777777777776E-2</v>
           </cell>
+          <cell r="C64" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="B65">
             <v>0.25</v>
           </cell>
+          <cell r="C65" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="B66">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C66" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="67">
           <cell r="B67">
             <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Implementierung</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>6.25E-2</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Koordination und Projektmanagement</v>
           </cell>
         </row>
       </sheetData>
@@ -3430,7 +3729,7 @@
         </row>
         <row r="31">
           <cell r="B31">
-            <v>0.29166666666667002</v>
+            <v>0.3125</v>
           </cell>
           <cell r="C31" t="str">
             <v>Implementierung</v>
@@ -3658,6 +3957,62 @@
           </cell>
           <cell r="C59" t="str">
             <v>Koordination und Projektmanagement</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>7.2916666666666671E-2</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>LV-Einheit</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>6.25E-2</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Implementierung</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>3.125E-2</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>6.25E-2</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Implementierung</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>2.7777777777777776E-2</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Implementierung</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Abschlussbericht</v>
           </cell>
         </row>
       </sheetData>
@@ -3680,722 +4035,614 @@
           <cell r="B2">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C2" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="B3">
             <v>2.7777777777777776E-2</v>
           </cell>
+          <cell r="C3" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="B4">
             <v>5.5555555555555552E-2</v>
           </cell>
+          <cell r="C4" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5">
             <v>0.15625</v>
           </cell>
+          <cell r="C5" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="B6">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C6" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="B7">
             <v>6.5972222222222224E-2</v>
           </cell>
+          <cell r="C7" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="B8">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C8" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="B9">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C9" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="B10">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C10" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="B11">
             <v>0.27083333333333331</v>
           </cell>
+          <cell r="C11" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="B12">
             <v>3.4722222222222224E-2</v>
           </cell>
+          <cell r="C12" t="str">
+            <v>Software/System Design und Architektur</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="B13">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C13" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="B14">
             <v>0.20833333333333334</v>
           </cell>
+          <cell r="C14" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="B15">
             <v>0.375</v>
           </cell>
+          <cell r="C15" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="B16">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C16" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="B17">
             <v>0.125</v>
           </cell>
+          <cell r="C17" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="B18">
             <v>0.375</v>
           </cell>
+          <cell r="C18" t="str">
+            <v>Tests</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="B19">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C19" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="B20">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C20" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="B21">
             <v>0.29166666666666669</v>
           </cell>
+          <cell r="C21" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="B22">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C22" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="B23">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C23" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="B24">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C24" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="B25">
             <v>0.125</v>
           </cell>
+          <cell r="C25" t="str">
+            <v>Tests</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="B26">
             <v>0.3125</v>
           </cell>
+          <cell r="C26" t="str">
+            <v>Tests</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="B27">
             <v>0.16666666666666666</v>
           </cell>
+          <cell r="C27" t="str">
+            <v>Tests</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="B28">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C28" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="B29">
             <v>0.125</v>
           </cell>
+          <cell r="C29" t="str">
+            <v>Tests</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="B30">
             <v>0.22916666666666666</v>
           </cell>
+          <cell r="C30" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="B31">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C31" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="B32">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C32" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="B33">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C33" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="B34">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C34" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="B35">
             <v>0.125</v>
           </cell>
+          <cell r="C35" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="B36">
             <v>0.25</v>
           </cell>
+          <cell r="C36" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="B37">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C37" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="B38">
             <v>0.25</v>
           </cell>
+          <cell r="C38" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="B39">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C39" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="B40">
             <v>0.125</v>
           </cell>
+          <cell r="C40" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="B41">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C41" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="B42">
             <v>0.16666666666666666</v>
           </cell>
+          <cell r="C42" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="B43">
             <v>0.3125</v>
           </cell>
+          <cell r="C43" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="B44">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C44" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="B45">
             <v>0.20833333333333334</v>
           </cell>
+          <cell r="C45" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="B46">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C46" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="B47">
             <v>0.47916666666666669</v>
           </cell>
+          <cell r="C47" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="B48">
             <v>0.125</v>
           </cell>
+          <cell r="C48" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="B49">
             <v>0.45833333333333331</v>
           </cell>
+          <cell r="C49" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="B50">
             <v>0.20833333333333334</v>
           </cell>
+          <cell r="C50" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="B51">
             <v>0.20833333333333334</v>
           </cell>
+          <cell r="C51" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="B52">
             <v>0.125</v>
           </cell>
+          <cell r="C52" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="B53">
             <v>0.10416666666666667</v>
           </cell>
+          <cell r="C53" t="str">
+            <v>Systemtest (fremdes System)</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="B54">
             <v>0.11458333333333333</v>
           </cell>
+          <cell r="C54" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="B55">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C55" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="B56">
             <v>0.20833333333333334</v>
           </cell>
+          <cell r="C56" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="B57">
             <v>2.7777777777777776E-2</v>
           </cell>
+          <cell r="C57" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="B58">
             <v>7.2916666666666671E-2</v>
           </cell>
+          <cell r="C58" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="B59">
             <v>0.1388888888888889</v>
           </cell>
+          <cell r="C59" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="B60">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C60" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="B61">
             <v>0.25</v>
           </cell>
+          <cell r="C61" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="B62">
             <v>0.13541666666666666</v>
           </cell>
+          <cell r="C62" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="B63">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C63" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="64">
-          <cell r="B64"/>
+          <cell r="B64">
+            <v>0.10416666666666667</v>
+          </cell>
         </row>
         <row r="65">
-          <cell r="B65"/>
+          <cell r="B65">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="66">
-          <cell r="B66"/>
+          <cell r="B66">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="67">
-          <cell r="B67"/>
+          <cell r="B67">
+            <v>3.125E-2</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="68">
-          <cell r="B68"/>
+          <cell r="B68">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
         </row>
         <row r="69">
-          <cell r="B69"/>
+          <cell r="B69">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
         </row>
         <row r="70">
-          <cell r="B70"/>
+          <cell r="B70">
+            <v>1.7361111111111112E-2</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="71">
-          <cell r="B71"/>
+          <cell r="B71">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="72">
-          <cell r="B72"/>
+          <cell r="B72">
+            <v>0.1875</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="73">
-          <cell r="B73"/>
+          <cell r="B73">
+            <v>2.7777777777777776E-2</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
         </row>
         <row r="74">
-          <cell r="B74"/>
+          <cell r="B74">
+            <v>0.14583333333333334</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="75">
-          <cell r="B75"/>
+          <cell r="B75">
+            <v>2.7777777777777776E-2</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="76">
-          <cell r="B76"/>
+          <cell r="B76">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="77">
-          <cell r="B77"/>
+          <cell r="B77">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="78">
-          <cell r="B78"/>
-        </row>
-        <row r="79">
-          <cell r="B79"/>
-        </row>
-        <row r="80">
-          <cell r="B80"/>
-        </row>
-        <row r="81">
-          <cell r="B81"/>
-        </row>
-        <row r="82">
-          <cell r="B82"/>
-        </row>
-        <row r="83">
-          <cell r="B83"/>
-        </row>
-        <row r="84">
-          <cell r="B84"/>
-        </row>
-        <row r="85">
-          <cell r="B85"/>
-        </row>
-        <row r="86">
-          <cell r="B86"/>
-        </row>
-        <row r="87">
-          <cell r="B87"/>
-        </row>
-        <row r="88">
-          <cell r="B88"/>
-        </row>
-        <row r="89">
-          <cell r="B89"/>
-        </row>
-        <row r="90">
-          <cell r="B90"/>
-        </row>
-        <row r="91">
-          <cell r="B91"/>
-        </row>
-        <row r="92">
-          <cell r="B92"/>
-        </row>
-        <row r="93">
-          <cell r="B93"/>
-        </row>
-        <row r="94">
-          <cell r="B94"/>
-        </row>
-        <row r="95">
-          <cell r="B95"/>
-        </row>
-        <row r="96">
-          <cell r="B96"/>
-        </row>
-        <row r="97">
-          <cell r="B97"/>
-        </row>
-        <row r="98">
-          <cell r="B98"/>
-        </row>
-        <row r="99">
-          <cell r="B99"/>
-        </row>
-        <row r="100">
-          <cell r="B100"/>
-        </row>
-        <row r="101">
-          <cell r="B101"/>
-        </row>
-        <row r="102">
-          <cell r="B102"/>
-        </row>
-        <row r="103">
-          <cell r="B103"/>
-        </row>
-        <row r="104">
-          <cell r="B104"/>
-        </row>
-        <row r="105">
-          <cell r="B105"/>
-        </row>
-        <row r="106">
-          <cell r="B106"/>
-        </row>
-        <row r="107">
-          <cell r="B107"/>
-        </row>
-        <row r="108">
-          <cell r="B108"/>
-        </row>
-        <row r="109">
-          <cell r="B109"/>
-        </row>
-        <row r="110">
-          <cell r="B110"/>
-        </row>
-        <row r="111">
-          <cell r="B111"/>
-        </row>
-        <row r="112">
-          <cell r="B112"/>
-        </row>
-        <row r="113">
-          <cell r="B113"/>
-        </row>
-        <row r="114">
-          <cell r="B114"/>
-        </row>
-        <row r="115">
-          <cell r="B115"/>
-        </row>
-        <row r="116">
-          <cell r="B116"/>
-        </row>
-        <row r="117">
-          <cell r="B117"/>
-        </row>
-        <row r="118">
-          <cell r="B118"/>
-        </row>
-        <row r="119">
-          <cell r="B119"/>
-        </row>
-        <row r="120">
-          <cell r="B120"/>
-        </row>
-        <row r="121">
-          <cell r="B121"/>
-        </row>
-        <row r="122">
-          <cell r="B122"/>
-        </row>
-        <row r="123">
-          <cell r="B123"/>
-        </row>
-        <row r="124">
-          <cell r="B124"/>
-        </row>
-        <row r="125">
-          <cell r="B125"/>
-        </row>
-        <row r="126">
-          <cell r="B126"/>
-        </row>
-        <row r="127">
-          <cell r="B127"/>
-        </row>
-        <row r="128">
-          <cell r="B128"/>
-        </row>
-        <row r="129">
-          <cell r="B129"/>
-        </row>
-        <row r="130">
-          <cell r="B130"/>
-        </row>
-        <row r="131">
-          <cell r="B131"/>
-        </row>
-        <row r="132">
-          <cell r="B132"/>
-        </row>
-        <row r="133">
-          <cell r="B133"/>
-        </row>
-        <row r="134">
-          <cell r="B134"/>
-        </row>
-        <row r="135">
-          <cell r="B135"/>
-        </row>
-        <row r="136">
-          <cell r="B136"/>
-        </row>
-        <row r="137">
-          <cell r="B137"/>
-        </row>
-        <row r="138">
-          <cell r="B138"/>
-        </row>
-        <row r="139">
-          <cell r="B139"/>
-        </row>
-        <row r="140">
-          <cell r="B140"/>
-        </row>
-        <row r="141">
-          <cell r="B141"/>
-        </row>
-        <row r="142">
-          <cell r="B142"/>
-        </row>
-        <row r="143">
-          <cell r="B143"/>
-        </row>
-        <row r="144">
-          <cell r="B144"/>
-        </row>
-        <row r="145">
-          <cell r="B145"/>
-        </row>
-        <row r="146">
-          <cell r="B146"/>
-        </row>
-        <row r="147">
-          <cell r="B147"/>
-        </row>
-        <row r="148">
-          <cell r="B148"/>
-        </row>
-        <row r="149">
-          <cell r="B149"/>
-        </row>
-        <row r="150">
-          <cell r="B150"/>
-        </row>
-        <row r="151">
-          <cell r="B151"/>
-        </row>
-        <row r="152">
-          <cell r="B152"/>
-        </row>
-        <row r="153">
-          <cell r="B153"/>
-        </row>
-        <row r="154">
-          <cell r="B154"/>
-        </row>
-        <row r="155">
-          <cell r="B155"/>
-        </row>
-        <row r="156">
-          <cell r="B156"/>
-        </row>
-        <row r="157">
-          <cell r="B157"/>
-        </row>
-        <row r="158">
-          <cell r="B158"/>
-        </row>
-        <row r="159">
-          <cell r="B159"/>
-        </row>
-        <row r="160">
-          <cell r="B160"/>
-        </row>
-        <row r="161">
-          <cell r="B161"/>
-        </row>
-        <row r="162">
-          <cell r="B162"/>
-        </row>
-        <row r="163">
-          <cell r="B163"/>
-        </row>
-        <row r="164">
-          <cell r="B164"/>
-        </row>
-        <row r="165">
-          <cell r="B165"/>
-        </row>
-        <row r="166">
-          <cell r="B166"/>
-        </row>
-        <row r="167">
-          <cell r="B167"/>
-        </row>
-        <row r="168">
-          <cell r="B168"/>
-        </row>
-        <row r="169">
-          <cell r="B169"/>
-        </row>
-        <row r="170">
-          <cell r="B170"/>
-        </row>
-        <row r="171">
-          <cell r="B171"/>
-        </row>
-        <row r="172">
-          <cell r="B172"/>
-        </row>
-        <row r="173">
-          <cell r="B173"/>
-        </row>
-        <row r="174">
-          <cell r="B174"/>
-        </row>
-        <row r="175">
-          <cell r="B175"/>
-        </row>
-        <row r="176">
-          <cell r="B176"/>
-        </row>
-        <row r="177">
-          <cell r="B177"/>
-        </row>
-        <row r="178">
-          <cell r="B178"/>
-        </row>
-        <row r="179">
-          <cell r="B179"/>
-        </row>
-        <row r="180">
-          <cell r="B180"/>
-        </row>
-        <row r="181">
-          <cell r="B181"/>
-        </row>
-        <row r="182">
-          <cell r="B182"/>
-        </row>
-        <row r="183">
-          <cell r="B183"/>
-        </row>
-        <row r="184">
-          <cell r="B184"/>
-        </row>
-        <row r="185">
-          <cell r="B185"/>
-        </row>
-        <row r="186">
-          <cell r="B186"/>
-        </row>
-        <row r="187">
-          <cell r="B187"/>
-        </row>
-        <row r="188">
-          <cell r="B188"/>
-        </row>
-        <row r="189">
-          <cell r="B189"/>
-        </row>
-        <row r="190">
-          <cell r="B190"/>
-        </row>
-        <row r="191">
-          <cell r="B191"/>
-        </row>
-        <row r="192">
-          <cell r="B192"/>
-        </row>
-        <row r="193">
-          <cell r="B193"/>
-        </row>
-        <row r="194">
-          <cell r="B194"/>
-        </row>
-        <row r="195">
-          <cell r="B195"/>
-        </row>
-        <row r="196">
-          <cell r="B196"/>
-        </row>
-        <row r="197">
-          <cell r="B197"/>
-        </row>
-        <row r="198">
-          <cell r="B198"/>
-        </row>
-        <row r="199">
-          <cell r="B199"/>
-        </row>
-        <row r="200">
-          <cell r="B200"/>
+          <cell r="B78">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -4417,2588 +4664,807 @@
           <cell r="B2">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C2" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="B3">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C3" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="B4">
             <v>2.7777777777777776E-2</v>
           </cell>
+          <cell r="C4" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5">
             <v>5.5555555555555552E-2</v>
           </cell>
+          <cell r="C5" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="B6">
             <v>0.15625</v>
           </cell>
+          <cell r="C6" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="B7">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C7" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="B8">
             <v>6.5972222222222224E-2</v>
           </cell>
+          <cell r="C8" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="B9">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C9" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="B10">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C10" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="B11">
             <v>0.15277777777777776</v>
           </cell>
+          <cell r="C11" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="B12">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C12" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="B13">
             <v>0.27083333333333331</v>
           </cell>
+          <cell r="C13" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="B14">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C14" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="B15">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C15" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="B16">
             <v>9.0277777777777776E-2</v>
           </cell>
+          <cell r="C16" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="B17">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C17" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="B18">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C18" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="B19">
             <v>3.4722222222222224E-2</v>
           </cell>
+          <cell r="C19" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="B20">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C20" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="B21">
             <v>0.125</v>
           </cell>
+          <cell r="C21" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="B22">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C22" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="B23">
             <v>0.22916666666666666</v>
           </cell>
+          <cell r="C23" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="B24">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C24" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="B25">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C25" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="B26">
             <v>0.19791666666666666</v>
           </cell>
+          <cell r="C26" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="B27">
             <v>0.10416666666666667</v>
           </cell>
+          <cell r="C27" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="B28">
             <v>0.16666666666666666</v>
           </cell>
+          <cell r="C28" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="B29">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C29" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="B30">
             <v>0.20833333333333334</v>
           </cell>
+          <cell r="C30" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="B31">
             <v>0.125</v>
           </cell>
+          <cell r="C31" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="B32">
             <v>0.14583333333333334</v>
           </cell>
+          <cell r="C32" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="B33">
             <v>0.16666666666666666</v>
           </cell>
+          <cell r="C33" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="B34">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C34" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="B35">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C35" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="B36">
             <v>3.4722222222222224E-2</v>
           </cell>
+          <cell r="C36" t="str">
+            <v>Software/System Design und Architektur</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="B37">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C37" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="B38">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C38" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="B39">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C39" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="B40">
             <v>0.25</v>
           </cell>
+          <cell r="C40" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="B41">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C41" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="B42">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C42" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="B43">
             <v>1.3888888888888888E-2</v>
           </cell>
+          <cell r="C43" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="B44">
             <v>0.1875</v>
           </cell>
+          <cell r="C44" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="B45">
             <v>0.10416666666666667</v>
           </cell>
+          <cell r="C45" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="B46">
             <v>1.3888888888888888E-2</v>
           </cell>
+          <cell r="C46" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="B47">
             <v>0.125</v>
           </cell>
+          <cell r="C47" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="B48">
             <v>0.16666666666666666</v>
           </cell>
+          <cell r="C48" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="B49">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C49" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="B50">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C50" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="B51">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C51" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="B52">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C52" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="B53">
             <v>0.16666666666666666</v>
           </cell>
+          <cell r="C53" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="B54">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C54" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="B55">
             <v>0.16666666666666666</v>
           </cell>
+          <cell r="C55" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="B56">
             <v>0.1875</v>
           </cell>
+          <cell r="C56" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="B57">
             <v>9.375E-2</v>
           </cell>
+          <cell r="C57" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="B58">
             <v>0.13541666666666666</v>
           </cell>
+          <cell r="C58" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="B59">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C59" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="B60">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C60" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="B61">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C61" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="B62">
             <v>0.14583333333333334</v>
           </cell>
+          <cell r="C62" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="B63">
             <v>0.16666666666666666</v>
           </cell>
+          <cell r="C63" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="B64">
             <v>0.20833333333333334</v>
           </cell>
+          <cell r="C64" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="B65">
             <v>0.22916666666666666</v>
           </cell>
+          <cell r="C65" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="B66">
             <v>0.31944444444444448</v>
           </cell>
+          <cell r="C66" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="67">
           <cell r="B67">
             <v>2.7777777777777776E-2</v>
           </cell>
+          <cell r="C67" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="68">
           <cell r="B68">
             <v>0.125</v>
           </cell>
+          <cell r="C68" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="69">
           <cell r="B69">
             <v>5.9027777777777783E-2</v>
           </cell>
+          <cell r="C69" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="70">
           <cell r="B70">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C70" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="71">
           <cell r="B71">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C71" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="72">
           <cell r="B72">
             <v>0.14583333333333334</v>
           </cell>
+          <cell r="C72" t="str">
+            <v>Systemtest (fremdes System)</v>
+          </cell>
         </row>
         <row r="73">
           <cell r="B73">
             <v>9.375E-2</v>
           </cell>
+          <cell r="C73" t="str">
+            <v>Systemtest (fremdes System)</v>
+          </cell>
         </row>
         <row r="74">
           <cell r="B74">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C74" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="75">
           <cell r="B75">
             <v>9.375E-2</v>
           </cell>
+          <cell r="C75" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="76">
           <cell r="B76">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C76" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="77">
           <cell r="B77">
             <v>6.25E-2</v>
           </cell>
+          <cell r="C77" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="78">
           <cell r="B78">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C78" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="79">
           <cell r="B79">
             <v>8.3333333333333329E-2</v>
           </cell>
+          <cell r="C79" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="80">
           <cell r="B80">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C80" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="B81">
             <v>0.125</v>
           </cell>
+          <cell r="C81" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="B82">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C82" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="83">
           <cell r="B83">
             <v>3.125E-2</v>
           </cell>
+          <cell r="C83" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="B84">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C84" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="85">
           <cell r="B85">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C85" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="86">
           <cell r="B86">
             <v>0.125</v>
           </cell>
+          <cell r="C86" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="87">
           <cell r="B87">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C87" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="88">
           <cell r="B88">
             <v>0.20833333333333334</v>
           </cell>
+          <cell r="C88" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="89">
           <cell r="B89">
             <v>3.125E-2</v>
           </cell>
+          <cell r="C89" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="90">
           <cell r="B90">
             <v>0.10416666666666667</v>
           </cell>
+          <cell r="C90" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="91">
           <cell r="B91">
             <v>4.1666666666666664E-2</v>
           </cell>
+          <cell r="C91" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="92">
           <cell r="B92">
             <v>0.20833333333333334</v>
           </cell>
+          <cell r="C92" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="93">
           <cell r="B93">
             <v>2.0833333333333332E-2</v>
           </cell>
+          <cell r="C93" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="94">
-          <cell r="B94"/>
+          <cell r="B94">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>LV-Einheit</v>
+          </cell>
         </row>
         <row r="95">
-          <cell r="B95"/>
+          <cell r="B95">
+            <v>3.125E-2</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>Koordination und Projektmanagement</v>
+          </cell>
         </row>
         <row r="96">
-          <cell r="B96"/>
+          <cell r="B96">
+            <v>0.1875</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
         </row>
         <row r="97">
-          <cell r="B97"/>
+          <cell r="B97">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
         </row>
         <row r="98">
-          <cell r="B98"/>
+          <cell r="B98">
+            <v>9.7222222222222224E-2</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>Abschlussbericht</v>
+          </cell>
         </row>
         <row r="99">
-          <cell r="B99"/>
+          <cell r="B99">
+            <v>0.1423611111111111</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="100">
-          <cell r="B100"/>
+          <cell r="B100">
+            <v>6.9444444444444434E-2</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>Softwarekonzept</v>
+          </cell>
         </row>
         <row r="101">
-          <cell r="B101"/>
+          <cell r="B101">
+            <v>0.16666666666666666</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>Implementierung</v>
+          </cell>
         </row>
         <row r="102">
-          <cell r="B102"/>
-        </row>
-        <row r="103">
-          <cell r="B103"/>
-        </row>
-        <row r="104">
-          <cell r="B104"/>
-        </row>
-        <row r="105">
-          <cell r="B105"/>
-        </row>
-        <row r="106">
-          <cell r="B106"/>
-        </row>
-        <row r="107">
-          <cell r="B107"/>
-        </row>
-        <row r="108">
-          <cell r="B108"/>
-        </row>
-        <row r="109">
-          <cell r="B109"/>
-        </row>
-        <row r="110">
-          <cell r="B110"/>
-        </row>
-        <row r="111">
-          <cell r="B111"/>
-        </row>
-        <row r="112">
-          <cell r="B112"/>
-        </row>
-        <row r="113">
-          <cell r="B113"/>
-        </row>
-        <row r="114">
-          <cell r="B114"/>
-        </row>
-        <row r="115">
-          <cell r="B115"/>
-        </row>
-        <row r="116">
-          <cell r="B116"/>
-        </row>
-        <row r="117">
-          <cell r="B117"/>
-        </row>
-        <row r="118">
-          <cell r="B118"/>
-        </row>
-        <row r="119">
-          <cell r="B119"/>
-        </row>
-        <row r="120">
-          <cell r="B120"/>
-        </row>
-        <row r="121">
-          <cell r="B121"/>
-        </row>
-        <row r="122">
-          <cell r="B122"/>
-        </row>
-        <row r="123">
-          <cell r="B123"/>
-        </row>
-        <row r="124">
-          <cell r="B124"/>
-        </row>
-        <row r="125">
-          <cell r="B125"/>
-        </row>
-        <row r="126">
-          <cell r="B126"/>
-        </row>
-        <row r="127">
-          <cell r="B127"/>
-        </row>
-        <row r="128">
-          <cell r="B128"/>
-        </row>
-        <row r="129">
-          <cell r="B129"/>
-        </row>
-        <row r="130">
-          <cell r="B130"/>
-        </row>
-        <row r="131">
-          <cell r="B131"/>
-        </row>
-        <row r="132">
-          <cell r="B132"/>
-        </row>
-        <row r="133">
-          <cell r="B133"/>
-        </row>
-        <row r="134">
-          <cell r="B134"/>
-        </row>
-        <row r="135">
-          <cell r="B135"/>
-        </row>
-        <row r="136">
-          <cell r="B136"/>
-        </row>
-        <row r="137">
-          <cell r="B137"/>
-        </row>
-        <row r="138">
-          <cell r="B138"/>
-        </row>
-        <row r="139">
-          <cell r="B139"/>
-        </row>
-        <row r="140">
-          <cell r="B140"/>
-        </row>
-        <row r="141">
-          <cell r="B141"/>
-        </row>
-        <row r="142">
-          <cell r="B142"/>
-        </row>
-        <row r="143">
-          <cell r="B143"/>
-        </row>
-        <row r="144">
-          <cell r="B144"/>
-        </row>
-        <row r="145">
-          <cell r="B145"/>
-        </row>
-        <row r="146">
-          <cell r="B146"/>
-        </row>
-        <row r="147">
-          <cell r="B147"/>
-        </row>
-        <row r="148">
-          <cell r="B148"/>
-        </row>
-        <row r="149">
-          <cell r="B149"/>
-        </row>
-        <row r="150">
-          <cell r="B150"/>
-        </row>
-        <row r="151">
-          <cell r="B151"/>
-        </row>
-        <row r="152">
-          <cell r="B152"/>
-        </row>
-        <row r="153">
-          <cell r="B153"/>
-        </row>
-        <row r="154">
-          <cell r="B154"/>
-        </row>
-        <row r="155">
-          <cell r="B155"/>
-        </row>
-        <row r="156">
-          <cell r="B156"/>
-        </row>
-        <row r="157">
-          <cell r="B157"/>
-        </row>
-        <row r="158">
-          <cell r="B158"/>
-        </row>
-        <row r="159">
-          <cell r="B159"/>
-        </row>
-        <row r="160">
-          <cell r="B160"/>
-        </row>
-        <row r="161">
-          <cell r="B161"/>
-        </row>
-        <row r="162">
-          <cell r="B162"/>
-        </row>
-        <row r="163">
-          <cell r="B163"/>
-        </row>
-        <row r="164">
-          <cell r="B164"/>
-        </row>
-        <row r="165">
-          <cell r="B165"/>
-        </row>
-        <row r="166">
-          <cell r="B166"/>
-        </row>
-        <row r="167">
-          <cell r="B167"/>
-        </row>
-        <row r="168">
-          <cell r="B168"/>
-        </row>
-        <row r="169">
-          <cell r="B169"/>
-        </row>
-        <row r="170">
-          <cell r="B170"/>
-        </row>
-        <row r="171">
-          <cell r="B171"/>
-        </row>
-        <row r="172">
-          <cell r="B172"/>
-        </row>
-        <row r="173">
-          <cell r="B173"/>
-        </row>
-        <row r="174">
-          <cell r="B174"/>
-        </row>
-        <row r="175">
-          <cell r="B175"/>
-        </row>
-        <row r="176">
-          <cell r="B176"/>
-        </row>
-        <row r="177">
-          <cell r="B177"/>
-        </row>
-        <row r="178">
-          <cell r="B178"/>
-        </row>
-        <row r="179">
-          <cell r="B179"/>
-        </row>
-        <row r="180">
-          <cell r="B180"/>
-        </row>
-        <row r="181">
-          <cell r="B181"/>
-        </row>
-        <row r="182">
-          <cell r="B182"/>
-        </row>
-        <row r="183">
-          <cell r="B183"/>
-        </row>
-        <row r="184">
-          <cell r="B184"/>
-        </row>
-        <row r="185">
-          <cell r="B185"/>
-        </row>
-        <row r="186">
-          <cell r="B186"/>
-        </row>
-        <row r="187">
-          <cell r="B187"/>
-        </row>
-        <row r="188">
-          <cell r="B188"/>
-        </row>
-        <row r="189">
-          <cell r="B189"/>
-        </row>
-        <row r="190">
-          <cell r="B190"/>
-        </row>
-        <row r="191">
-          <cell r="B191"/>
-        </row>
-        <row r="192">
-          <cell r="B192"/>
-        </row>
-        <row r="193">
-          <cell r="B193"/>
-        </row>
-        <row r="194">
-          <cell r="B194"/>
-        </row>
-        <row r="195">
-          <cell r="B195"/>
-        </row>
-        <row r="196">
-          <cell r="B196"/>
-        </row>
-        <row r="197">
-          <cell r="B197"/>
-        </row>
-        <row r="198">
-          <cell r="B198"/>
-        </row>
-        <row r="199">
-          <cell r="B199"/>
-        </row>
-        <row r="200">
-          <cell r="B200"/>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datenerfassung"/>
-      <sheetName val="Tätigkeiten"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>2.7777777777777801E-2</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>5.5555555555555601E-2</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.15625</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>6.5972222222222196E-2</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>4.1666666666666699E-2</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>2.0833333333333301E-2</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Einarbeitung, Dokumentation lesen</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0.1875</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>4.1666666666666699E-2</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.16666666666666699</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1.38888888888889E-2</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>2.0833333333333301E-2</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
+          <cell r="B102">
             <v>3.125E-2</v>
           </cell>
-          <cell r="C25" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>0.104166666666667</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>0.16666666666666699</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>0.20833333333333301</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>0.125</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>0.125</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>4.1666666666666699E-2</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>0.20833333333333301</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>1</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>Einarbeitung, Dokumentation lesen</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>Einarbeitung, Dokumentation lesen</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>0.16666666666666699</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>2.0833333333333301E-2</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>4.1666666666666699E-2</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0.125</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0.25</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>2.0833333333333301E-2</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>0.1875</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>0.16666666666666699</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>3.125E-2</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>0.16666666666666699</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>0.29166666666666702</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>4.1666666666666699E-2</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>0.104166666666667</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>0.3125</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>0.20833333333333301</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>0.14583333333333301</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>Einarbeitung, Dokumentation lesen</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>0.27083333333333298</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>Konfiguration und Deployment</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>0.5</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Konfiguration und Deployment</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>0.16666666666666699</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>0.125</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>Systemtest (fremdes System)</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>8.3333333333333301E-2</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>Einarbeitung, Dokumentation lesen</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>0.25</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datenerfassung"/>
-      <sheetName val="Tätigkeiten"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>5.5555555555555552E-2</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.15625</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>6.5972222222222224E-2</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.27083333333333331</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>3.4722222222222224E-2</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Software/System Design und Architektur</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0.375</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.125</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.375</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Tests</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.29166666666666669</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>0.125</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Tests</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>0.3125</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Tests</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Tests</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>0.125</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Tests</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>0.22916666666666666</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>0.125</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>0.25</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>0.25</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>0.125</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0.3125</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>0.47916666666666669</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>0.125</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>0.45833333333333331</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>0.125</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>0.10416666666666667</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Systemtest (fremdes System)</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>0.11458333333333333</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>7.2916666666666671E-2</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>0.1388888888888889</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>0.25</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>0.13541666666666666</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datenerfassung"/>
-      <sheetName val="Tätigkeiten"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>5.5555555555555552E-2</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.15625</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>6.5972222222222224E-2</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.15277777777777776</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0.27083333333333331</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>9.0277777777777776E-2</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>3.4722222222222224E-2</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.125</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0.22916666666666666</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>0.19791666666666666</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>0.10416666666666667</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>0.125</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>0.14583333333333334</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>3.4722222222222224E-2</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>Software/System Design und Architektur</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>0.25</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>1.3888888888888888E-2</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0.1875</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>0.10416666666666667</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>1.3888888888888888E-2</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>0.125</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>0.1875</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>9.375E-2</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>0.13541666666666666</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>0.14583333333333334</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>0.22916666666666666</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>0.31944444444444448</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>0.125</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>5.9027777777777783E-2</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>0.14583333333333334</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>Systemtest (fremdes System)</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>9.375E-2</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>Systemtest (fremdes System)</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>9.375E-2</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>LV-Einheit</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="C79" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C80" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>0.125</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>3.125E-2</v>
-          </cell>
-          <cell r="C83" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C84" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C85" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>0.125</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C87" t="str">
-            <v>Implementierung</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>3.125E-2</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>0.10416666666666667</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="C91" t="str">
-            <v>Koordination und Projektmanagement</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="C92" t="str">
-            <v>Softwarekonzept</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>2.0833333333333332E-2</v>
-          </cell>
-          <cell r="C93" t="str">
+          <cell r="C102" t="str">
             <v>Koordination und Projektmanagement</v>
           </cell>
         </row>
@@ -7275,7 +5741,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7315,27 +5781,27 @@
       </c>
       <c r="B2" s="1">
         <f>SUM([1]Datenerfassung!B2:B200)</f>
-        <v>7.6201388888888886</v>
+        <v>8.2972222222222207</v>
       </c>
       <c r="C2" s="1">
         <f>SUM([2]Datenerfassung!B2:B200)</f>
-        <v>8.2222222222222214</v>
+        <v>8.4097222222222214</v>
       </c>
       <c r="D2" s="1">
         <f>SUM([3]Datenerfassung!B2:B200)</f>
-        <v>5.7777777777444648</v>
+        <v>6.1805555555222389</v>
       </c>
       <c r="E2" s="1">
         <f>SUM([4]Datenerfassung!B2:B200)</f>
-        <v>8.0590277777777786</v>
+        <v>8.9340277777777786</v>
       </c>
       <c r="F2" s="1">
         <f>SUM([5]Datenerfassung!B2:B200)</f>
-        <v>8.6250000000000018</v>
+        <v>9.4340277777777768</v>
       </c>
       <c r="G2" s="1">
         <f>SUM(B2:F2)</f>
-        <v>38.304166666633357</v>
+        <v>41.255555555522236</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7345,27 +5811,27 @@
       </c>
       <c r="B3" s="1">
         <f>SUMIF([1]Datenerfassung!$C$2:$C$200, A3,[1]Datenerfassung!$B$2:$B$200)</f>
-        <v>0.3576388888888889</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="C3" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A3,[6]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A3,[2]Datenerfassung!$B$2:$B$200)</f>
         <v>0.70138888888888873</v>
       </c>
       <c r="D3" s="1">
         <f>SUMIF([3]Datenerfassung!$C$2:$C$200, A3,[3]Datenerfassung!$B$2:$B$200)</f>
-        <v>0.63888888888888684</v>
+        <v>0.71180555555555347</v>
       </c>
       <c r="E3" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A3,[7]Datenerfassung!$B$2:$B$200)</f>
-        <v>0.3263888888888889</v>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A3,[4]Datenerfassung!$B$2:$B$200)</f>
+        <v>0.36805555555555558</v>
       </c>
       <c r="F3" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A3,[8]Datenerfassung!$B$2:$B$200)</f>
-        <v>0.55555555555555558</v>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A3,[5]Datenerfassung!$B$2:$B$200)</f>
+        <v>0.59722222222222221</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G13" si="0">SUM(B3:F3)</f>
-        <v>2.5798611111111089</v>
+        <v>2.7777777777777759</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7378,7 +5844,7 @@
         <v>0.54652777777777783</v>
       </c>
       <c r="C4" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A4,[6]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A4,[2]Datenerfassung!$B$2:$B$200)</f>
         <v>0.49305555555555552</v>
       </c>
       <c r="D4" s="1">
@@ -7386,16 +5852,16 @@
         <v>0.53819444444443998</v>
       </c>
       <c r="E4" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A4,[7]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A4,[4]Datenerfassung!$B$2:$B$200)</f>
         <v>0.28819444444444442</v>
       </c>
       <c r="F4" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A4,[8]Datenerfassung!$B$2:$B$200)</f>
-        <v>1.4513888888888888</v>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A4,[5]Datenerfassung!$B$2:$B$200)</f>
+        <v>1.6631944444444444</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>3.3173611111111065</v>
+        <v>3.5291666666666623</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7408,7 +5874,7 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="C5" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A5,[6]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A5,[2]Datenerfassung!$B$2:$B$200)</f>
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D5" s="1">
@@ -7416,11 +5882,11 @@
         <v>0.104166666666667</v>
       </c>
       <c r="E5" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A5,[7]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A5,[4]Datenerfassung!$B$2:$B$200)</f>
         <v>0.10416666666666667</v>
       </c>
       <c r="F5" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A5,[8]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A5,[5]Datenerfassung!$B$2:$B$200)</f>
         <v>0.23958333333333334</v>
       </c>
       <c r="G5" s="1">
@@ -7435,27 +5901,27 @@
       </c>
       <c r="B6" s="1">
         <f>SUMIF([1]Datenerfassung!$C$2:$C$200, A6,[1]Datenerfassung!$B$2:$B$200)</f>
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C6" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A6,[6]Datenerfassung!$B$2:$B$200)</f>
-        <v>0</v>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A6,[2]Datenerfassung!$B$2:$B$200)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="D6" s="1">
         <f>SUMIF([3]Datenerfassung!$C$2:$C$200, A6,[3]Datenerfassung!$B$2:$B$200)</f>
-        <v>0</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="E6" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A6,[7]Datenerfassung!$B$2:$B$200)</f>
-        <v>0</v>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A6,[4]Datenerfassung!$B$2:$B$200)</f>
+        <v>0.15277777777777779</v>
       </c>
       <c r="F6" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A6,[8]Datenerfassung!$B$2:$B$200)</f>
-        <v>0</v>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A6,[5]Datenerfassung!$B$2:$B$200)</f>
+        <v>0.3263888888888889</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.82638888888888884</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7468,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A7,[6]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A7,[2]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="D7" s="1">
@@ -7476,11 +5942,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A7,[7]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A7,[4]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A7,[8]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A7,[5]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="G7" s="1">
@@ -7498,7 +5964,7 @@
         <v>0.10416666666666666</v>
       </c>
       <c r="C8" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A8,[6]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A8,[2]Datenerfassung!$B$2:$B$200)</f>
         <v>1.3958333333333328</v>
       </c>
       <c r="D8" s="1">
@@ -7506,11 +5972,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A8,[7]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A8,[4]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A8,[8]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A8,[5]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="G8" s="1">
@@ -7528,7 +5994,7 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="C9" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A9,[6]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A9,[2]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="D9" s="1">
@@ -7536,11 +6002,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A9,[7]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A9,[4]Datenerfassung!$B$2:$B$200)</f>
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A9,[8]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A9,[5]Datenerfassung!$B$2:$B$200)</f>
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="G9" s="1">
@@ -7555,27 +6021,27 @@
       </c>
       <c r="B10" s="1">
         <f>SUMIF([1]Datenerfassung!$C$2:$C$200, A10,[1]Datenerfassung!$B$2:$B$200)</f>
-        <v>4.1180555555555554</v>
+        <v>4.4097222222222223</v>
       </c>
       <c r="C10" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A10,[6]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A10,[2]Datenerfassung!$B$2:$B$200)</f>
         <v>4.3958333333333348</v>
       </c>
       <c r="D10" s="1">
         <f>SUMIF([3]Datenerfassung!$C$2:$C$200, A10,[3]Datenerfassung!$B$2:$B$200)</f>
-        <v>4.0798611110777925</v>
+        <v>4.2326388888555675</v>
       </c>
       <c r="E10" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A10,[7]Datenerfassung!$B$2:$B$200)</f>
-        <v>5.270833333333333</v>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A10,[4]Datenerfassung!$B$2:$B$200)</f>
+        <v>5.7256944444444438</v>
       </c>
       <c r="F10" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A10,[8]Datenerfassung!$B$2:$B$200)</f>
-        <v>5.1979166666666652</v>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A10,[5]Datenerfassung!$B$2:$B$200)</f>
+        <v>5.3645833333333321</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>23.062499999966679</v>
+        <v>24.128472222188901</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7585,10 +6051,10 @@
       </c>
       <c r="B11" s="1">
         <f>SUMIF([1]Datenerfassung!$C$2:$C$200, A11,[1]Datenerfassung!$B$2:$B$200)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C11" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A11,[6]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A11,[2]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="D11" s="1">
@@ -7596,16 +6062,16 @@
         <v>4.1666666666670002E-2</v>
       </c>
       <c r="E11" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A11,[7]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A11,[4]Datenerfassung!$B$2:$B$200)</f>
         <v>1.1041666666666665</v>
       </c>
       <c r="F11" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A11,[8]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A11,[5]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>1.1875000000000031</v>
+        <v>1.340277777777781</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7618,7 +6084,7 @@
         <v>0.60833333333333328</v>
       </c>
       <c r="C12" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A12,[6]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A12,[2]Datenerfassung!$B$2:$B$200)</f>
         <v>0.77083333333333304</v>
       </c>
       <c r="D12" s="1">
@@ -7626,11 +6092,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A12,[7]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A12,[4]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A12,[8]Datenerfassung!$B$2:$B$200)</f>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A12,[5]Datenerfassung!$B$2:$B$200)</f>
         <v>0</v>
       </c>
       <c r="G12" s="1">
@@ -7645,27 +6111,27 @@
       </c>
       <c r="B13" s="1">
         <f>SUMIF([1]Datenerfassung!$C$2:$C$200, A13,[1]Datenerfassung!$B$2:$B$200)</f>
-        <v>1.3124999999999998</v>
+        <v>1.364583333333333</v>
       </c>
       <c r="C13" s="1">
-        <f>SUMIF([6]Datenerfassung!$C$2:$C$200, A13,[6]Datenerfassung!$B$2:$B$200)</f>
-        <v>0.38194444444444442</v>
+        <f>SUMIF([2]Datenerfassung!$C$2:$C$200, A13,[2]Datenerfassung!$B$2:$B$200)</f>
+        <v>0.50694444444444442</v>
       </c>
       <c r="D13" s="1">
         <f>SUMIF([3]Datenerfassung!$C$2:$C$200, A13,[3]Datenerfassung!$B$2:$B$200)</f>
-        <v>0.37500000000000666</v>
+        <v>0.40625000000000666</v>
       </c>
       <c r="E13" s="1">
-        <f>SUMIF([7]Datenerfassung!$C$2:$C$200, A13,[7]Datenerfassung!$B$2:$B$200)</f>
-        <v>0.93055555555555569</v>
+        <f>SUMIF([4]Datenerfassung!$C$2:$C$200, A13,[4]Datenerfassung!$B$2:$B$200)</f>
+        <v>1.0520833333333335</v>
       </c>
       <c r="F13" s="1">
-        <f>SUMIF([8]Datenerfassung!$C$2:$C$200, A13,[8]Datenerfassung!$B$2:$B$200)</f>
-        <v>1.1458333333333333</v>
+        <f>SUMIF([5]Datenerfassung!$C$2:$C$200, A13,[5]Datenerfassung!$B$2:$B$200)</f>
+        <v>1.2083333333333333</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>4.1458333333333401</v>
+        <v>4.5381944444444509</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7674,27 +6140,27 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B3:B13)</f>
-        <v>7.6201388888888895</v>
+        <v>8.2972222222222225</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:G15" si="1">SUM(C3:C13)</f>
-        <v>8.2222222222222214</v>
+        <v>8.4097222222222214</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>5.777777777744463</v>
+        <v>6.180555555522238</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>8.0590277777777768</v>
+        <v>8.8298611111111107</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>8.625</v>
+        <v>9.4340277777777768</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>38.30416666663335</v>
+        <v>41.151388888855571</v>
       </c>
     </row>
   </sheetData>
